--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIEGO\Dropbox (Comillas)\SIGASUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4BB41F-8378-4DA1-9B5F-DEE8E28ED8B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1883A-66F5-4271-AADF-D73446B09C2D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2784" windowWidth="17280" windowHeight="9576" xr2:uid="{0D07FF8F-BC0F-4A69-887B-C0051CEA8344}"/>
+    <workbookView xWindow="12900" yWindow="1704" windowWidth="10140" windowHeight="4752" xr2:uid="{0D07FF8F-BC0F-4A69-887B-C0051CEA8344}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.9202123287671244</v>
+        <v>1430.8775000000005</v>
       </c>
       <c r="C4">
-        <v>8.8287671232876397E-2</v>
+        <v>32.224999999999881</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,10 +481,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.095787671232878</v>
+        <v>399.96250000000043</v>
       </c>
       <c r="C5">
-        <v>0.91491232876712625</v>
+        <v>333.94300000000106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,10 +492,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1432876712328767</v>
+        <v>52.3</v>
       </c>
       <c r="C6">
-        <v>0.31671232876712341</v>
+        <v>115.60000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,10 +503,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.95250000000000101</v>
+        <v>347.66250000000042</v>
       </c>
       <c r="C7">
-        <v>0.59820000000000029</v>
+        <v>218.3430000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>300.0000000052375</v>
+        <v>300.00000000527166</v>
       </c>
       <c r="C8">
         <v>59.999999999999972</v>
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.7643540669856537</v>
+        <v>1.7643540669856543</v>
       </c>
       <c r="C9">
         <v>0</v>
